--- a/lifelib/libraries/basiclife/model_BasicTerm_S/disc_rate_ann.xlsx
+++ b/lifelib/libraries/basiclife/model_BasicTerm_S/disc_rate_ann.xlsx
@@ -374,7 +374,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>zero_spot</t>
+          <t>disc_rate_ann</t>
         </is>
       </c>
     </row>
